--- a/server/uploads/certi_demo.xlsx
+++ b/server/uploads/certi_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YASH KAUSHIK\Desktop\certificate_issuer\server\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C198E04D-C6C9-4271-837C-F2C3C5E019EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD38F1-3C0D-44D4-9B26-AAC6262FB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{39A99AF7-05BA-4296-A47B-160E93B6B8F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39A99AF7-05BA-4296-A47B-160E93B6B8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -432,7 +423,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,9 +452,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>12345</v>
+        <v>12434545</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -478,9 +469,9 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>67890</v>
+        <v>458775222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
